--- a/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>008545</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>泓德丰润三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>126.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>257030</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安优势混合</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>107.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004350</t>
+          <t>004965</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信价值先锋股票</t>
+          <t>泓德致远混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>59.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0690</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004965</t>
+          <t>501071</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泓德致远混合A</t>
+          <t>泓德三年运作丰泽封闭</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>49.54</t>
+          <t>28.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004966</t>
+          <t>257030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泓德致远混合C</t>
+          <t>国联安优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49.54</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6524</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512040</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中证价值ETF</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>11.87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501071</t>
+          <t>004350</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泓德三年运作丰泽封闭</t>
+          <t>汇丰晋信价值先锋股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>93.76</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4.65</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008545</t>
+          <t>512040</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泓德丰润三年持有期混合</t>
+          <t>富国中证价值ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>008545</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>泓德丰润三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>117.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9875</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -818,25 +938,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501071</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泓德三年运作丰泽封闭</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>76.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -856,15 +986,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>107.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.17</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.03</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3173</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>255010</t>
+          <t>004965</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国联安稳健混合</t>
+          <t>泓德致远混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>68.53</t>
+          <t>53.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0506</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>257030</t>
+          <t>501071</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安优势混合</t>
+          <t>泓德三年运作丰泽封闭</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.50</t>
+          <t>22.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0383</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006369</t>
+          <t>257030</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>弘毅远方国企转型升级混合</t>
+          <t>国联安优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.05</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5597</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>400001</t>
+          <t>400003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方龙混合</t>
+          <t>东方精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>14.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400003</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方精选混合</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>11.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4546</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006863</t>
+          <t>400001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国联安智能制造混合</t>
+          <t>东方龙混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008545</t>
+          <t>255010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泓德丰润三年持有期混合</t>
+          <t>国联安稳健混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004965</t>
+          <t>006369</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泓德致远混合A</t>
+          <t>弘毅远方国企转型升级混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>49.70</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004966</t>
+          <t>006863</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泓德致远混合C</t>
+          <t>国联安智能制造混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>49.70</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0907</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8624</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8470</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5076</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4315</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1714,4 +1715,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6744</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7316</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4836</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.26</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3447</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.18</v>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2259</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2250,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.9</v>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7822</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2201,13 +2288,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5584</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5268</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>19.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2521,7 +2522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2532,17 +2533,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2552,14 +2573,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.62</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3985</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2568,14 +2611,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.26</v>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2584,14 +2649,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.18</v>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6747</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2600,14 +2687,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.9</v>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1167</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2616,13 +2725,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>19.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2844,7 +2845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,17 +2856,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2875,14 +2896,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.5</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2891,14 +2934,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.62</v>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2907,14 +2972,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.26</v>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2923,14 +3010,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.18</v>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0849</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2939,14 +3048,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.9</v>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2955,13 +3086,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>19.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,395 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008545</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泓德丰润三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>126.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.0408</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001500</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泓德远见回报混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>107.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.7914</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004965</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泓德致远混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>59.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>49.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.0690</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501071</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泓德三年运作丰泽封闭</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>28.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.0513</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D6" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>257030</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国联安优势混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6524</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004966</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泓德致远混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.87</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>49.54</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4095</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004350</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇丰晋信价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0464</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006863</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国联安智能制造混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国中证价值ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
+      <c r="D8" t="n">
+        <v>19.11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -855,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -916,22 +666,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>117.24</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.9875</t>
+          <t>5.0097</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -944,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>76.85</t>
+          <t>36.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.7474</t>
+          <t>2.2925</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -982,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>107.13</t>
+          <t>26.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.3173</t>
+          <t>1.6970</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1030,26 +780,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53.54</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>49.70</t>
+          <t>50.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.0506</t>
+          <t>1.0849</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1058,32 +808,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501071</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泓德三年运作丰泽封闭</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.80</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>50.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.0383</t>
+          <t>0.1723</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1096,32 +846,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>257030</t>
+          <t>001473</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安优势混合</t>
+          <t>建信大安全战略精选股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.50</t>
+          <t>83.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5597</t>
+          <t>0.1680</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1134,32 +884,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>400003</t>
+          <t>255010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方精选混合</t>
+          <t>国联安稳健混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14.33</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>69.68</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4715</t>
+          <t>0.0938</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1172,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004966</t>
+          <t>012010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泓德致远混合C</t>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.87</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>49.70</t>
+          <t>29.86</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4546</t>
+          <t>0.0840</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1210,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>400001</t>
+          <t>006863</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方龙混合</t>
+          <t>国联安智能制造混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1385</t>
+          <t>0.0146</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1248,112 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>255010</t>
+          <t>012011</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国联安稳健混合</t>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>68.53</t>
+          <t>29.86</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0883</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006369</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>弘毅远方国企转型升级混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006863</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国联安智能制造混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1367,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1388,7 +1062,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1428,26 +1102,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>125.64</t>
+          <t>84.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.3323</t>
+          <t>4.3985</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1456,32 +1130,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>71.07</t>
+          <t>33.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.0907</t>
+          <t>2.0636</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1494,36 +1168,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004965</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泓德致远混合A</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>48.00</t>
+          <t>26.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49.60</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.8624</t>
+          <t>1.6747</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1532,36 +1206,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501071</t>
+          <t>004965</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泓德三年运作丰泽封闭</t>
+          <t>泓德致远混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.74</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.69</t>
+          <t>46.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.8470</t>
+          <t>1.1167</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1570,36 +1244,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>257030</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安优势混合</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.32</t>
+          <t>46.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5076</t>
+          <t>0.1551</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1608,36 +1282,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004966</t>
+          <t>255010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泓德致远混合C</t>
+          <t>国联安稳健混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>49.60</t>
+          <t>69.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4315</t>
+          <t>0.0813</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1646,73 +1320,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>255010</t>
+          <t>006863</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国联安稳健混合</t>
+          <t>国联安智能制造混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0906</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006863</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国联安智能制造混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1748,7 +1384,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1788,26 +1424,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>109.80</t>
+          <t>111.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>94.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.0061</t>
+          <t>6.3447</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1816,36 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.22</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.2153</t>
+          <t>3.2259</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1854,36 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>56.53</t>
+          <t>40.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.6744</t>
+          <t>2.7822</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1902,26 +1538,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>26.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>49.45</t>
+          <t>48.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.7726</t>
+          <t>1.8004</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1940,22 +1576,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.04</t>
+          <t>21.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.06</t>
+          <t>88.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.7316</t>
+          <t>1.5584</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1978,12 +1614,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>10.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>89.47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1993,7 +1629,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4836</t>
+          <t>0.5268</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2016,26 +1652,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>49.45</t>
+          <t>48.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2485</t>
+          <t>0.2487</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2054,22 +1690,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>69.23</t>
+          <t>69.11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1072</t>
+          <t>0.1165</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2092,22 +1728,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0196</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2146,7 +1782,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2186,26 +1822,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>111.31</t>
+          <t>109.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.3447</t>
+          <t>6.0061</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2214,36 +1850,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>47.44</t>
+          <t>46.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>92.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.2259</t>
+          <t>4.2153</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2252,36 +1888,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>40.38</t>
+          <t>56.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.7822</t>
+          <t>3.6744</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2300,26 +1936,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.13</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>48.48</t>
+          <t>49.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.8004</t>
+          <t>1.7726</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2338,22 +1974,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.26</t>
+          <t>21.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.88</t>
+          <t>89.06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.5584</t>
+          <t>1.7316</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2376,12 +2012,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.47</t>
+          <t>89.90</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2391,7 +2027,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5268</t>
+          <t>0.4836</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2414,26 +2050,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>48.48</t>
+          <t>49.45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2487</t>
+          <t>0.2485</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2452,22 +2088,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>69.11</t>
+          <t>69.23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1165</t>
+          <t>0.1072</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2490,22 +2126,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2523,7 +2159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2544,7 +2180,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2584,26 +2220,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.75</t>
+          <t>125.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.3985</t>
+          <t>6.3323</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2612,32 +2248,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.94</t>
+          <t>71.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0636</t>
+          <t>6.0907</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2650,36 +2286,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>004965</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>泓德致远混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.71</t>
+          <t>48.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>49.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6747</t>
+          <t>1.8624</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2688,36 +2324,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004965</t>
+          <t>501071</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泓德致远混合A</t>
+          <t>泓德三年运作丰泽封闭</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>23.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46.32</t>
+          <t>87.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1167</t>
+          <t>1.8470</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2726,36 +2362,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004966</t>
+          <t>257030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泓德致远混合C</t>
+          <t>国联安优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46.32</t>
+          <t>89.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1551</t>
+          <t>0.5076</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2764,36 +2400,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>255010</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安稳健混合</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69.07</t>
+          <t>49.60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0813</t>
+          <t>0.4315</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2802,35 +2438,73 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>006863</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>国联安智能制造混合</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2845,7 +2519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2866,7 +2540,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2906,22 +2580,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>117.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.0097</t>
+          <t>6.9875</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2934,36 +2608,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.68</t>
+          <t>76.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2925</t>
+          <t>6.7474</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2972,36 +2646,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.27</t>
+          <t>107.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6970</t>
+          <t>4.3173</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3020,26 +2694,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.45</t>
+          <t>53.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50.07</t>
+          <t>49.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0849</t>
+          <t>2.0506</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3048,32 +2722,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004966</t>
+          <t>501071</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泓德致远混合C</t>
+          <t>泓德三年运作丰泽封闭</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>22.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50.07</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1723</t>
+          <t>2.0383</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3086,32 +2760,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001473</t>
+          <t>257030</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信大安全战略精选股票</t>
+          <t>国联安优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.34</t>
+          <t>88.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1680</t>
+          <t>0.5597</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3124,32 +2798,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>255010</t>
+          <t>400003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国联安稳健混合</t>
+          <t>东方精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>14.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>69.68</t>
+          <t>89.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0938</t>
+          <t>0.4715</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3162,36 +2836,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012010</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>11.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>49.70</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0840</t>
+          <t>0.4546</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -3200,36 +2874,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006863</t>
+          <t>400001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国联安智能制造混合</t>
+          <t>东方龙混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>88.37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.1385</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -3238,36 +2912,112 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012011</t>
+          <t>255010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+          <t>国联安稳健混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>68.53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0883</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3281,144 +3031,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.62</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>126.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>107.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0690</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6524</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
-        <v>16.62</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
-        <v>18.26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
-        <v>17.18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D7" t="n">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>19.11</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>10.62</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>9.5</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>16.62</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>18.26</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>17.18</v>
+        <v>18.26</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>23.9</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>19.11</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>74.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>88.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.0097</t>
+          <t>5.0056</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.68</t>
+          <t>29.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2925</t>
+          <t>2.3689</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.27</t>
+          <t>21.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6970</t>
+          <t>1.7116</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.45</t>
+          <t>16.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50.07</t>
+          <t>46.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0849</t>
+          <t>1.0928</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +835,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50.07</t>
+          <t>46.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1723</t>
+          <t>0.1714</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -856,22 +873,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.34</t>
+          <t>84.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1680</t>
+          <t>0.1607</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>255010</t>
+          <t>005396</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国联安稳健混合</t>
+          <t>中金丰硕混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>69.68</t>
+          <t>76.61</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0938</t>
+          <t>0.0989</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012010</t>
+          <t>255010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+          <t>国联安稳健混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>68.18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0840</t>
+          <t>0.0868</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006863</t>
+          <t>011994</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国联安智能制造混合</t>
+          <t>国联安核心优势混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0554</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012011</t>
+          <t>006863</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+          <t>国联安智能制造混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1036,6 +1053,442 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0849</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1350,404 +1803,6 @@
       </c>
       <c r="H8" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008545</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泓德丰润三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>111.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.3447</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005395</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泓德臻远回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>47.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.2259</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001500</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泓德远见回报混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>40.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.7822</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004965</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泓德致远混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>48.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.8004</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501071</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泓德三年运作丰泽封闭</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.5584</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>257030</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国联安优势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.37</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.47</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5268</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004966</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泓德致远混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>48.48</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2487</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>255010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国联安稳健混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>69.11</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1165</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006863</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国联安智能制造混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1837,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1822,26 +1877,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>109.80</t>
+          <t>111.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>94.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.0061</t>
+          <t>6.3447</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1850,36 +1905,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.22</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.2153</t>
+          <t>3.2259</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1888,36 +1943,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>56.53</t>
+          <t>40.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.6744</t>
+          <t>2.7822</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1936,26 +1991,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>26.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>49.45</t>
+          <t>48.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.7726</t>
+          <t>1.8004</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1974,22 +2029,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.04</t>
+          <t>21.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.06</t>
+          <t>88.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.7316</t>
+          <t>1.5584</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2012,12 +2067,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>10.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>89.47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2027,7 +2082,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4836</t>
+          <t>0.5268</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2050,26 +2105,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>49.45</t>
+          <t>48.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2485</t>
+          <t>0.2487</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2088,22 +2143,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>69.23</t>
+          <t>69.11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1072</t>
+          <t>0.1165</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2126,22 +2181,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0196</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2154,6 +2209,404 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6744</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7316</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4836</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2513,7 +2966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3025,7 +3478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002595-豪迈科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>10.76</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.62</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>9.5</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>16.62</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>18.26</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>17.18</v>
+        <v>18.26</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>23.9</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,432 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>19.11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>126.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>107.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0690</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6524</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,22 +1098,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.71</t>
+          <t>85.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.42</t>
+          <t>66.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.0056</t>
+          <t>3.8416</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,26 +1136,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.76</t>
+          <t>34.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>92.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3689</t>
+          <t>2.3764</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +1174,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.21</t>
+          <t>21.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7116</t>
+          <t>1.7033</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -797,22 +1212,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.19</t>
+          <t>16.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46.90</t>
+          <t>48.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0928</t>
+          <t>1.0955</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -825,36 +1240,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004966</t>
+          <t>169107</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泓德致远混合C</t>
+          <t>东方红恒阳五年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>20.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46.90</t>
+          <t>97.18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1714</t>
+          <t>0.5933</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -863,32 +1278,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001473</t>
+          <t>169109</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信大安全战略精选股票</t>
+          <t>东方红睿和三年定开混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>19.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.03</t>
+          <t>98.28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1607</t>
+          <t>0.5914</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -901,36 +1316,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005396</t>
+          <t>010225</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中金丰硕混合</t>
+          <t>东方红启航三年持有期混合B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.61</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0989</t>
+          <t>0.3650</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1354,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>255010</t>
+          <t>001473</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国联安稳健混合</t>
+          <t>建信大安全战略精选股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>68.18</t>
+          <t>83.03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0868</t>
+          <t>0.2270</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +1392,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011994</t>
+          <t>910022</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国联安核心优势混合</t>
+          <t>东方红启航三年持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0554</t>
+          <t>0.2254</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1015,35 +1430,225 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006863</t>
+          <t>910028</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国联安智能制造混合</t>
+          <t>东方红内需增长混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.2228</t>
         </is>
       </c>
       <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012439</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015103</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1119,26 +1724,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>74.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>88.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.0097</t>
+          <t>5.0056</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1157,26 +1762,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.68</t>
+          <t>29.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2925</t>
+          <t>2.3689</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1195,26 +1800,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.27</t>
+          <t>21.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6970</t>
+          <t>1.7116</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1233,26 +1838,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.45</t>
+          <t>16.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50.07</t>
+          <t>46.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0849</t>
+          <t>1.0928</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1271,26 +1876,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50.07</t>
+          <t>46.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1723</t>
+          <t>0.1714</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1309,22 +1914,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.34</t>
+          <t>84.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1680</t>
+          <t>0.1607</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1337,36 +1942,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>255010</t>
+          <t>005396</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国联安稳健混合</t>
+          <t>中金丰硕混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>69.68</t>
+          <t>76.61</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0938</t>
+          <t>0.0989</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1375,36 +1980,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012010</t>
+          <t>255010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+          <t>国联安稳健混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>68.18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0840</t>
+          <t>0.0868</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1413,36 +2018,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006863</t>
+          <t>011994</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国联安智能制造混合</t>
+          <t>国联安核心优势混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0554</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1451,36 +2056,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012011</t>
+          <t>006863</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+          <t>国联安智能制造混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1489,6 +2094,442 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0849</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1803,404 +2844,6 @@
       </c>
       <c r="H8" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008545</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泓德丰润三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>111.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.3447</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005395</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泓德臻远回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>47.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.2259</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001500</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泓德远见回报混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>40.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.7822</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004965</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泓德致远混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>48.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.8004</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501071</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泓德三年运作丰泽封闭</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.5584</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>257030</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国联安优势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.37</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.47</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5268</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004966</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泓德致远混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>48.48</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2487</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>255010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国联安稳健混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>69.11</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1165</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006863</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国联安智能制造混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2235,7 +2878,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2275,26 +2918,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>109.80</t>
+          <t>111.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>94.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.0061</t>
+          <t>6.3447</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2303,36 +2946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.22</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.2153</t>
+          <t>3.2259</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2341,36 +2984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>56.53</t>
+          <t>40.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.6744</t>
+          <t>2.7822</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2389,26 +3032,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>26.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>49.45</t>
+          <t>48.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.7726</t>
+          <t>1.8004</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2427,22 +3070,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.04</t>
+          <t>21.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.06</t>
+          <t>88.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.7316</t>
+          <t>1.5584</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2465,12 +3108,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>10.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>89.47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2480,7 +3123,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4836</t>
+          <t>0.5268</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2503,26 +3146,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>49.45</t>
+          <t>48.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2485</t>
+          <t>0.2487</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2541,22 +3184,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>69.23</t>
+          <t>69.11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1072</t>
+          <t>0.1165</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2579,22 +3222,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0196</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2607,6 +3250,404 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6744</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7316</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4836</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2966,7 +4007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3476,402 +4517,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008545</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泓德丰润三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>126.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.0408</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001500</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泓德远见回报混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>107.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.7914</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004965</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泓德致远混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>59.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>49.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.0690</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501071</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泓德三年运作丰泽封闭</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>28.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.0513</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>257030</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国联安优势混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6524</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004966</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泓德致远混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.87</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>49.54</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4095</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004350</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇丰晋信价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0464</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006863</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国联安智能制造混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国中证价值ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>